--- a/server/app/templates/report_d.xlsx
+++ b/server/app/templates/report_d.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Staxi\server\app\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
@@ -24,25 +19,25 @@
     <t xml:space="preserve">№ п/п </t>
   </si>
   <si>
-    <t>Категории граждан, имеющие право на обслуживание социальной службой</t>
-  </si>
-  <si>
     <t>Отчет
 о количестве получателей транспортных услуг предоставленных 
 службой "Социальное такси"</t>
   </si>
   <si>
-    <t>За месяц, чел.</t>
+    <t>Вид информации</t>
   </si>
   <si>
-    <t>С нарастающим итогом с начала года, чел.</t>
+    <t>За месяц</t>
+  </si>
+  <si>
+    <t>С нарастающим итогом с начала года</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,14 +126,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -146,21 +141,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,9 +185,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,10 +219,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,10 +253,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,14 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="63.28515625" style="4" customWidth="1"/>
@@ -458,32 +443,32 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="39" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
